--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/26.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/26.xlsx
@@ -479,13 +479,13 @@
         <v>-0.01876416868434993</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.135089273908359</v>
+        <v>-2.122374257560192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05533836995859739</v>
+        <v>0.04776315515338651</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02225085917187655</v>
+        <v>-0.03644920260589459</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.01214244763686217</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.198067853227333</v>
+        <v>-2.177379343872039</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03371187860864931</v>
+        <v>-0.04025693739083272</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05050848412561407</v>
+        <v>-0.05765431477439432</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.01476988338360834</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.347835705164849</v>
+        <v>-2.325101521859742</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05609718728665653</v>
+        <v>-0.06596387407440986</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02550112645826695</v>
+        <v>-0.03636137402844287</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.03058863421179635</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.507346429992738</v>
+        <v>-2.476526528275982</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0861461492680031</v>
+        <v>-0.09328588071001587</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02641905707677278</v>
+        <v>-0.03894682777717789</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05679971091493602</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.678626184199159</v>
+        <v>-2.638892901712406</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05042614483425309</v>
+        <v>-0.05340865694355109</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0197703117795422</v>
+        <v>-0.0291124667852922</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08759799879516957</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.660221217857609</v>
+        <v>-2.588903803046135</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03982694331372534</v>
+        <v>-0.03816856899364737</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02405988389911129</v>
+        <v>-0.04047345923107828</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1153325738239762</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.515110110287064</v>
+        <v>-2.425912870836722</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04243252444479304</v>
+        <v>-0.03793130985039237</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01045003791197057</v>
+        <v>-0.0001192774953965215</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.133924378752543</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.096116562505512</v>
+        <v>-2.019085410794262</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05329399185632246</v>
+        <v>-0.05705781235253472</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02407993527525943</v>
+        <v>0.01332032461674693</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.137571047272338</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.706881654463173</v>
+        <v>-1.624381344043524</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1218649338603996</v>
+        <v>-0.1232665315755667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05298712574973363</v>
+        <v>0.05087680020818535</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1215385603956764</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.203999616801692</v>
+        <v>-1.107332068902539</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3091294891630326</v>
+        <v>-0.3160295217790834</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07177390243492732</v>
+        <v>0.0685248549898904</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08211858892160864</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6556162768134531</v>
+        <v>-0.558612052700735</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6041035962966657</v>
+        <v>-0.6134719778915158</v>
       </c>
       <c r="G12" t="n">
-        <v>0.143081558515573</v>
+        <v>0.1496998077789662</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01821893339409071</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07091703989028084</v>
+        <v>0.03330010614565982</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9373776723266929</v>
+        <v>-0.9414562118921072</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2310004042274521</v>
+        <v>0.2449309924843777</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06757127098387346</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5319273371661462</v>
+        <v>0.6367934388021467</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.310667424116807</v>
+        <v>-1.314695340266051</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3843442210927418</v>
+        <v>0.3966072862194382</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.172769966254022</v>
       </c>
       <c r="E15" t="n">
-        <v>1.039924169622836</v>
+        <v>1.153640220278451</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.695238268744053</v>
+        <v>-1.710568015033439</v>
       </c>
       <c r="G15" t="n">
-        <v>0.512814862839569</v>
+        <v>0.5274523491608456</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2916517888379639</v>
       </c>
       <c r="E16" t="n">
-        <v>1.600853577931783</v>
+        <v>1.718327959797519</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.082830660403909</v>
+        <v>-2.094489904060624</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6536443272593421</v>
+        <v>0.6756411164662608</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.421267547121443</v>
       </c>
       <c r="E17" t="n">
-        <v>2.099154501390209</v>
+        <v>2.213854354097418</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.514514827706559</v>
+        <v>-2.529123037835351</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8199568874743257</v>
+        <v>0.849401418065015</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5597011077089574</v>
       </c>
       <c r="E18" t="n">
-        <v>2.479852959640782</v>
+        <v>2.597653039147902</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.950639217535934</v>
+        <v>-2.964880865338001</v>
       </c>
       <c r="G18" t="n">
-        <v>1.018961805883682</v>
+        <v>1.054076159085421</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.707070704479645</v>
       </c>
       <c r="E19" t="n">
-        <v>2.729933855362374</v>
+        <v>2.850222411230626</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.350168366760426</v>
+        <v>-3.357300779154318</v>
       </c>
       <c r="G19" t="n">
-        <v>1.178534132699923</v>
+        <v>1.218994440633359</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8607512871660843</v>
       </c>
       <c r="E20" t="n">
-        <v>3.038969683698433</v>
+        <v>3.159672985626874</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.785534015267927</v>
+        <v>-3.786852663771056</v>
       </c>
       <c r="G20" t="n">
-        <v>1.344580767499844</v>
+        <v>1.387239839472957</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.013090497131753</v>
       </c>
       <c r="E21" t="n">
-        <v>3.352149313112319</v>
+        <v>3.462200960342032</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.162346058966261</v>
+        <v>-4.145800740768117</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53698207474205</v>
+        <v>1.580225450723487</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.15680948553415</v>
       </c>
       <c r="E22" t="n">
-        <v>3.522170800962608</v>
+        <v>3.637884951755249</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.448863615916782</v>
+        <v>-4.424786997202153</v>
       </c>
       <c r="G22" t="n">
-        <v>1.616715175051293</v>
+        <v>1.664047459249649</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.285101668376453</v>
       </c>
       <c r="E23" t="n">
-        <v>3.692926633307701</v>
+        <v>3.807916198336366</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.724854856867647</v>
+        <v>-4.683503454825482</v>
       </c>
       <c r="G23" t="n">
-        <v>1.711302893442735</v>
+        <v>1.754426115050853</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.396920904721983</v>
       </c>
       <c r="E24" t="n">
-        <v>3.79216072741461</v>
+        <v>3.906170759836418</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.948993081564099</v>
+        <v>-4.89741696929693</v>
       </c>
       <c r="G24" t="n">
-        <v>1.800452559080292</v>
+        <v>1.846762006303742</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.490542394572119</v>
       </c>
       <c r="E25" t="n">
-        <v>3.85475932615197</v>
+        <v>3.968452199821869</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.08359617075529</v>
+        <v>-5.019418792346167</v>
       </c>
       <c r="G25" t="n">
-        <v>1.832176973160665</v>
+        <v>1.884642349774533</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.564755172732207</v>
       </c>
       <c r="E26" t="n">
-        <v>3.856897708044649</v>
+        <v>3.973274232692239</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.185009816400558</v>
+        <v>-5.117662375274037</v>
       </c>
       <c r="G26" t="n">
-        <v>1.826202190211242</v>
+        <v>1.881148724138121</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.616988216199202</v>
       </c>
       <c r="E27" t="n">
-        <v>3.945815603825042</v>
+        <v>4.057499398785732</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.277512215998199</v>
+        <v>-5.201120871076857</v>
       </c>
       <c r="G27" t="n">
-        <v>1.841422150778812</v>
+        <v>1.894221763923538</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.646411632448057</v>
       </c>
       <c r="E28" t="n">
-        <v>3.889721199184522</v>
+        <v>4.00206004895204</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.2255027550902</v>
+        <v>-5.14465685450623</v>
       </c>
       <c r="G28" t="n">
-        <v>1.788699387639357</v>
+        <v>1.839082495062807</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.654564252422833</v>
       </c>
       <c r="E29" t="n">
-        <v>3.850510618717744</v>
+        <v>3.958410465799889</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.228785653132796</v>
+        <v>-5.138527151704912</v>
       </c>
       <c r="G29" t="n">
-        <v>1.760726595641661</v>
+        <v>1.803916908524221</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.64352820269389</v>
       </c>
       <c r="E30" t="n">
-        <v>3.787774177907438</v>
+        <v>3.877854582497712</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.125524252797319</v>
+        <v>-5.034148681649971</v>
       </c>
       <c r="G30" t="n">
-        <v>1.709969606843364</v>
+        <v>1.755105566684751</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.615940476657836</v>
       </c>
       <c r="E31" t="n">
-        <v>3.692972987279134</v>
+        <v>3.769232589334297</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.061126388063553</v>
+        <v>-4.966256886319453</v>
       </c>
       <c r="G31" t="n">
-        <v>1.618888932343223</v>
+        <v>1.661007614596737</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.57421809131713</v>
       </c>
       <c r="E32" t="n">
-        <v>3.533579977141857</v>
+        <v>3.597459409300388</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.918442154865788</v>
+        <v>-4.81444580011483</v>
       </c>
       <c r="G32" t="n">
-        <v>1.563095218596341</v>
+        <v>1.598412675383437</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.523142101722353</v>
       </c>
       <c r="E33" t="n">
-        <v>3.374610251954243</v>
+        <v>3.438694617460162</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.750435235010799</v>
+        <v>-4.649496412612379</v>
       </c>
       <c r="G33" t="n">
-        <v>1.450354431102846</v>
+        <v>1.48994682191327</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.465720803986346</v>
       </c>
       <c r="E34" t="n">
-        <v>3.193047845058528</v>
+        <v>3.256550346238829</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.550252559774642</v>
+        <v>-4.445444705563271</v>
       </c>
       <c r="G34" t="n">
-        <v>1.323176211270048</v>
+        <v>1.358296663678555</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.405750387460416</v>
       </c>
       <c r="E35" t="n">
-        <v>3.030733314879628</v>
+        <v>3.083501212149163</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.400877496752952</v>
+        <v>-4.289254693859936</v>
       </c>
       <c r="G35" t="n">
-        <v>1.256486874553739</v>
+        <v>1.292533186549549</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.345045737454662</v>
       </c>
       <c r="E36" t="n">
-        <v>2.855542139373223</v>
+        <v>2.888379048767984</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.183118432414608</v>
+        <v>-4.081787126060701</v>
       </c>
       <c r="G36" t="n">
-        <v>1.180347426871895</v>
+        <v>1.208139072428597</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.287130880081192</v>
       </c>
       <c r="E37" t="n">
-        <v>2.618434256446061</v>
+        <v>2.651779839685231</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.065317438026473</v>
+        <v>-3.960053058188556</v>
       </c>
       <c r="G37" t="n">
-        <v>1.129201308681833</v>
+        <v>1.152180680098993</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.232492902089731</v>
       </c>
       <c r="E38" t="n">
-        <v>2.395639991960824</v>
+        <v>2.434216254923785</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.905420633410202</v>
+        <v>-3.800693898648838</v>
       </c>
       <c r="G38" t="n">
-        <v>1.052916089958247</v>
+        <v>1.073231327859371</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.181970960805904</v>
       </c>
       <c r="E39" t="n">
-        <v>2.214228845392942</v>
+        <v>2.245193298310087</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.790187100110838</v>
+        <v>-3.686088888606863</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9686610377515931</v>
+        <v>0.9870226997250933</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.134113960029867</v>
       </c>
       <c r="E40" t="n">
-        <v>1.997710664671442</v>
+        <v>2.02612015987369</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.688878055861632</v>
+        <v>-3.588036210850815</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8485914434062936</v>
+        <v>0.8695855230206385</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.087383615604409</v>
       </c>
       <c r="E41" t="n">
-        <v>1.765505934064659</v>
+        <v>1.795071228949344</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.542567234319924</v>
+        <v>-3.443772283100274</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7858007196557578</v>
+        <v>0.802656487478367</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.040659930110232</v>
       </c>
       <c r="E42" t="n">
-        <v>1.529650218286861</v>
+        <v>1.558407368274855</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.480573066973221</v>
+        <v>-3.374470961085791</v>
       </c>
       <c r="G42" t="n">
-        <v>0.722772736761967</v>
+        <v>0.7443956445940391</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9915573805110414</v>
       </c>
       <c r="E43" t="n">
-        <v>1.323892868065227</v>
+        <v>1.354363895154883</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.363840653610749</v>
+        <v>-3.250944641305022</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6581412724090056</v>
+        <v>0.6699682442518271</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9399234483326168</v>
       </c>
       <c r="E44" t="n">
-        <v>1.092972020482998</v>
+        <v>1.11906259727225</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.309842851296552</v>
+        <v>-3.189276171599702</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6030013936275973</v>
+        <v>0.6191899082298443</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8850250688004427</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9791925380770017</v>
+        <v>1.004462161635351</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.207836667713822</v>
+        <v>-3.085275547404007</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5364749057319796</v>
+        <v>0.5500852856336126</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8280927513166736</v>
       </c>
       <c r="E46" t="n">
-        <v>0.810139604261389</v>
+        <v>0.8407271262003041</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.127720232259243</v>
+        <v>-3.003711160262828</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4308012691199646</v>
+        <v>0.4457461554623223</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7691239036994839</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6484331649972067</v>
+        <v>0.6807876271366609</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.080570619303573</v>
+        <v>-2.957591093409508</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3757888637599968</v>
+        <v>0.389388875010125</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7091865197904801</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5109759519991736</v>
+        <v>0.5402631230552618</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.981053826962991</v>
+        <v>-2.860500870481369</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3166289977981422</v>
+        <v>0.3288341204605476</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6496801950080764</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4016885353774263</v>
+        <v>0.4352482007741347</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.905986924791208</v>
+        <v>-2.787265255141522</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2535638097430697</v>
+        <v>0.2708111466401513</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5915008124933757</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2596416692868641</v>
+        <v>0.2934379839061508</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.829509581054447</v>
+        <v>-2.71044086653969</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2080594578129274</v>
+        <v>0.2198882594177792</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5363475339744357</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1880723572358935</v>
+        <v>0.2197589562343086</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.706892957963047</v>
+        <v>-2.603623628658773</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1469643135437511</v>
+        <v>0.1574384813255456</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4837094284924495</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08295496828107271</v>
+        <v>0.1198795660514001</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.606542709017689</v>
+        <v>-2.509815388892215</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1071779679581218</v>
+        <v>0.1200320462205871</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4345618392014622</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.02990719342709492</v>
+        <v>0.008460476664418409</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.508005754244303</v>
+        <v>-2.415177047084602</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1019875429989959</v>
+        <v>0.113631538638793</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3885016513037755</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1064400399454412</v>
+        <v>-0.07451557188309438</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.438405876058552</v>
+        <v>-2.350083262858666</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06436031660905467</v>
+        <v>0.07170681116048502</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3462101220823038</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1086046484272201</v>
+        <v>-0.09138353811923867</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.384665155309604</v>
+        <v>-2.293007495849259</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03520122889508352</v>
+        <v>0.04248246193410183</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3076400845965485</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1757178800138694</v>
+        <v>-0.1563083743177159</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.343436347323465</v>
+        <v>-2.255901141717261</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01132535008928859</v>
+        <v>-0.001594065691773326</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2717283175875365</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2872467551226658</v>
+        <v>-0.2642997095013736</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.279379428248001</v>
+        <v>-2.195450683603407</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02704483569111629</v>
+        <v>-0.01959892406937599</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2384319929599626</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3181788822439435</v>
+        <v>-0.2971213708792168</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.256152429036081</v>
+        <v>-2.183545641913962</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.05302623667923006</v>
+        <v>-0.04577671951540264</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2067860657292584</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3647335175794461</v>
+        <v>-0.3555237153605504</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.206424376419458</v>
+        <v>-2.134839816351569</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08574848098676337</v>
+        <v>-0.0782940304755486</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1775697559915601</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4022180225310282</v>
+        <v>-0.3891742589380942</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.233587193758433</v>
+        <v>-2.157863102057455</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1222748005551743</v>
+        <v>-0.1122550236775572</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1498269423433527</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4462664938057729</v>
+        <v>-0.43712744238538</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.182949139492103</v>
+        <v>-2.117034402035263</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.08895422406375116</v>
+        <v>-0.08638706793531858</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1235934789922001</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4652191689150421</v>
+        <v>-0.4598939514863548</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.134939843342556</v>
+        <v>-2.065017927039482</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1324196111715248</v>
+        <v>-0.1276262445729618</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.09813869116342457</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5188824297380432</v>
+        <v>-0.5039607203814019</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.143010313737286</v>
+        <v>-2.081828560732012</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1754568339642212</v>
+        <v>-0.1728195369579626</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.07311449504528185</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5722596377636495</v>
+        <v>-0.5598843472324314</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.188440255344865</v>
+        <v>-2.125356159748813</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1676846147804207</v>
+        <v>-0.1668130381333477</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.04798022145248027</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5966284084824414</v>
+        <v>-0.5766278896505191</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.24970068811744</v>
+        <v>-2.191878988120371</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1903358488734901</v>
+        <v>-0.1891952972079712</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.02263611116694381</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.6514035546991542</v>
+        <v>-0.628555926148172</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.295211749175027</v>
+        <v>-2.239486346543941</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1976353795328109</v>
+        <v>-0.1958129365506877</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.003316283823033468</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.692544534107841</v>
+        <v>-0.6669327450498366</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.280994498200029</v>
+        <v>-2.233466429464437</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2008307539582939</v>
+        <v>-0.2052441399752429</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.03075694135147938</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.768005749997141</v>
+        <v>-0.7387807908500811</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.32900867371499</v>
+        <v>-2.289113152328223</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2266474763636857</v>
+        <v>-0.2297111079229912</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.06015578197871863</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.7585775961759695</v>
+        <v>-0.7398261948900272</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.389873267968356</v>
+        <v>-2.34669698326136</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.213670804045194</v>
+        <v>-0.223172758268252</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.09231726752846374</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7707394144703258</v>
+        <v>-0.7426062133346448</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.402968264898136</v>
+        <v>-2.364694522590842</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2050562844068045</v>
+        <v>-0.2138958647749141</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1261878217680684</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.8037782076090914</v>
+        <v>-0.7804517913268618</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.438931627681909</v>
+        <v>-2.401705729097268</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.22318251699908</v>
+        <v>-0.2357926269908461</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1599637295141134</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7879074616794302</v>
+        <v>-0.7693896600126823</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.511976337849933</v>
+        <v>-2.483946213308622</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2495939120643012</v>
+        <v>-0.2555552767588367</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1915744951844464</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.7726509058712542</v>
+        <v>-0.750802937309462</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.506357138655053</v>
+        <v>-2.490506520107725</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2825113309883939</v>
+        <v>-0.291412513344855</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2196808157156734</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7501722793297045</v>
+        <v>-0.7233876128103135</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.525559881241789</v>
+        <v>-2.512910736326711</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.28505531013111</v>
+        <v>-0.2907416006004321</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2436253047681172</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6879695191115538</v>
+        <v>-0.6617648871557502</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.538324301164772</v>
+        <v>-2.53094060145206</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2639288777299107</v>
+        <v>-0.2770513210901452</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2626808334639962</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5930012102178207</v>
+        <v>-0.5656706646927402</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.52928649657672</v>
+        <v>-2.519333810973545</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2440857184325894</v>
+        <v>-0.2525148221852476</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2765663112728167</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5538247853089394</v>
+        <v>-0.5263063842154205</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.528585697719136</v>
+        <v>-2.519252081602861</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2261888160147712</v>
+        <v>-0.2367654504702593</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2854662780210463</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3937511036964116</v>
+        <v>-0.3752107349646242</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.539391052428405</v>
+        <v>-2.53298505556052</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2568361101800076</v>
+        <v>-0.2634665578569357</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2897464194845102</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3059865679157499</v>
+        <v>-0.2769451948923911</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.535750435908895</v>
+        <v>-2.531424268548721</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2161458621514377</v>
+        <v>-0.2237637714040209</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2900941231086218</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1865549505983289</v>
+        <v>-0.1533929534828602</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.508468684037955</v>
+        <v>-2.496121449857867</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1999549078664837</v>
+        <v>-0.2097087593290387</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.287286563535237</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02440380315461264</v>
+        <v>0.05123238396272947</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.489813040298262</v>
+        <v>-2.477951912897542</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2019743552271965</v>
+        <v>-0.2067799202392945</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2815272776761379</v>
       </c>
       <c r="E82" t="n">
-        <v>0.187681398082098</v>
+        <v>0.2108711921327359</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.452484675039928</v>
+        <v>-2.446289100805521</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.149849314350954</v>
+        <v>-0.1554642441010966</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2729326312055146</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3343606117125617</v>
+        <v>0.3634361402938184</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.406879076277445</v>
+        <v>-2.398659785237588</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1080727975970958</v>
+        <v>-0.1148355980608783</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2615005546734129</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5353526516867633</v>
+        <v>0.570209008442238</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.293717443516994</v>
+        <v>-2.298153396598983</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09310717395172868</v>
+        <v>-0.09635561147608884</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2474828197311126</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7071843841056401</v>
+        <v>0.7354792142206592</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.227336116742442</v>
+        <v>-2.226097367847967</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0523376362351815</v>
+        <v>-0.05442905423575059</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2313283174540063</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9197850443203874</v>
+        <v>0.9560350698222315</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.20643535499164</v>
+        <v>-2.196308841995592</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07066575257146064</v>
+        <v>-0.06425121681410131</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2139790654034382</v>
       </c>
       <c r="E87" t="n">
-        <v>1.041086068512041</v>
+        <v>1.078924937376814</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.092538767815708</v>
+        <v>-2.081755980171478</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02410379818783715</v>
+        <v>-0.01740930883985047</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1972758170616526</v>
       </c>
       <c r="E88" t="n">
-        <v>1.200208883789519</v>
+        <v>1.237163367673007</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.939577981135415</v>
+        <v>-1.923974990382847</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03250050013844311</v>
+        <v>0.03531162453757491</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1835288979428548</v>
       </c>
       <c r="E89" t="n">
-        <v>1.324050837520505</v>
+        <v>1.367905963940721</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.78409151293271</v>
+        <v>-1.777470214065933</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06204810732350278</v>
+        <v>0.05846238366490095</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.175729109446516</v>
       </c>
       <c r="E90" t="n">
-        <v>1.43744241037609</v>
+        <v>1.483958010788281</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.628977706263497</v>
+        <v>-1.627106469627234</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04306432625971948</v>
+        <v>0.04405544735943507</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1760690174497173</v>
       </c>
       <c r="E91" t="n">
-        <v>1.489917545720786</v>
+        <v>1.529672175431224</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.383092454877255</v>
+        <v>-1.375877703192002</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08855282025226639</v>
+        <v>0.09254414116090567</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1864070728274273</v>
       </c>
       <c r="E92" t="n">
-        <v>1.509416709756421</v>
+        <v>1.53953276301221</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.138411186906913</v>
+        <v>-1.131675832873585</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1069651056419368</v>
+        <v>0.1130356461376102</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2062744067912438</v>
       </c>
       <c r="E93" t="n">
-        <v>1.560327398565258</v>
+        <v>1.585396968141634</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9444454331288494</v>
+        <v>-0.9444942267829892</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07923140254952582</v>
+        <v>0.0863003831930358</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2328749181214582</v>
       </c>
       <c r="E94" t="n">
-        <v>1.593913290551067</v>
+        <v>1.615420313454557</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7219512496165719</v>
+        <v>-0.7178806390199554</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0801310355477292</v>
+        <v>0.08424739019510184</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2613625493097341</v>
       </c>
       <c r="E95" t="n">
-        <v>1.566100297770679</v>
+        <v>1.576495175864496</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5130808642608157</v>
+        <v>-0.5132101674442863</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0276839565541637</v>
+        <v>0.02707830532215288</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2859632894575496</v>
       </c>
       <c r="E96" t="n">
-        <v>1.47838760524754</v>
+        <v>1.486894778846822</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3310091736000157</v>
+        <v>-0.3299143659852529</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00717903332257074</v>
+        <v>0.006928355924427288</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3023365980845669</v>
       </c>
       <c r="E97" t="n">
-        <v>1.425242776999775</v>
+        <v>1.430841238891646</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1713349900307579</v>
+        <v>-0.1653053142204265</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02012406577205608</v>
+        <v>-0.02126644719960519</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3081449487372122</v>
       </c>
       <c r="E98" t="n">
-        <v>1.344440485744193</v>
+        <v>1.345798169170634</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.07124334745234105</v>
+        <v>-0.07105854148728639</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0853605714363516</v>
+        <v>-0.08876148912989877</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3046502397115728</v>
       </c>
       <c r="E99" t="n">
-        <v>1.267772236835608</v>
+        <v>1.262672690057318</v>
       </c>
       <c r="F99" t="n">
-        <v>0.006790513851482227</v>
+        <v>0.01643762919560626</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09459416056164045</v>
+        <v>-0.1001218716550081</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2952651456687516</v>
       </c>
       <c r="E100" t="n">
-        <v>1.141711391682612</v>
+        <v>1.130951171103423</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07386593035617316</v>
+        <v>0.08136368523543702</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09123898691884938</v>
+        <v>-0.1032019710725858</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2852062850883442</v>
       </c>
       <c r="E101" t="n">
-        <v>1.034084179142973</v>
+        <v>1.023419716110034</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1109625257573435</v>
+        <v>0.1231084861141044</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1422692201803291</v>
+        <v>-0.1497559964874116</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2795849070162345</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9128844017836598</v>
+        <v>0.9024620772593891</v>
       </c>
       <c r="F102" t="n">
-        <v>0.141578104047389</v>
+        <v>0.1509379467527648</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1444966504918131</v>
+        <v>-0.1483781856786377</v>
       </c>
     </row>
   </sheetData>
